--- a/Spiele-Bibliothek/Dokumentation/220_Scrum Backlog.110_Berkay_Nicola.xlsx
+++ b/Spiele-Bibliothek/Dokumentation/220_Scrum Backlog.110_Berkay_Nicola.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>Priorisierung</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Sprin</t>
-  </si>
-  <si>
-    <t>ReadyToTest</t>
   </si>
   <si>
     <t>Story Points Total:</t>
@@ -350,6 +347,10 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -359,10 +360,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Akzent1" xfId="5" builtinId="30"/>
@@ -1634,7 +1631,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,7 +1647,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -1673,17 +1670,17 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2"/>
-      <c r="E2" s="14" t="s">
-        <v>47</v>
+      <c r="E2" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1694,17 +1691,17 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3"/>
-      <c r="E3" s="15" t="s">
-        <v>48</v>
+      <c r="E3" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1715,17 +1712,17 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4"/>
-      <c r="E4" s="15" t="s">
-        <v>43</v>
+      <c r="E4" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1736,17 +1733,17 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5"/>
-      <c r="E5" s="14" t="s">
-        <v>45</v>
+      <c r="E5" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1754,20 +1751,20 @@
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6"/>
-      <c r="E6" s="15" t="s">
-        <v>35</v>
+      <c r="E6" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1775,20 +1772,20 @@
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7"/>
-      <c r="E7" s="15" t="s">
-        <v>36</v>
+      <c r="E7" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1796,20 +1793,20 @@
     </row>
     <row r="8" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8"/>
-      <c r="E8" s="15" t="s">
-        <v>49</v>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1817,20 +1814,20 @@
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9"/>
-      <c r="E9" s="14" t="s">
-        <v>50</v>
+      <c r="E9" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1838,20 +1835,20 @@
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10"/>
-      <c r="E10" s="15" t="s">
-        <v>51</v>
+      <c r="E10" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1859,20 +1856,20 @@
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11"/>
-      <c r="E11" s="15" t="s">
-        <v>52</v>
+      <c r="E11" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1880,17 +1877,17 @@
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12"/>
-      <c r="E12" s="15" t="s">
-        <v>39</v>
+      <c r="E12" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1901,20 +1898,20 @@
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13"/>
-      <c r="E13" s="15" t="s">
-        <v>38</v>
+      <c r="E13" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1922,20 +1919,20 @@
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14"/>
-      <c r="E14" s="15" t="s">
-        <v>53</v>
+      <c r="E14" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1949,104 +1946,95 @@
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17"/>
       <c r="D17"/>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18"/>
       <c r="D18"/>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19"/>
       <c r="D19"/>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="10">
         <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "InProgress", D2:D9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="10">
         <f>SUM(Tabelle2[Story Points])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
@@ -2179,13 +2167,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2195,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -2209,10 +2197,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -2223,17 +2211,17 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2241,37 +2229,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12"/>
+      <c r="A20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14"/>
       <c r="C20" s="7">
         <v>42370</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12"/>
+      <c r="A21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14"/>
       <c r="C21" s="8">
         <v>42403</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12"/>
+      <c r="A22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="9">
         <f>C21-C20</f>
         <v>33</v>
